--- a/Fatture.xlsx
+++ b/Fatture.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Acquista" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,15 +46,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:J350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7884,7 +7884,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -7922,7 +7921,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -7960,7 +7958,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -7998,7 +7995,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8036,7 +8032,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8074,7 +8069,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8112,7 +8106,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8150,7 +8143,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8188,7 +8180,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8226,7 +8217,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8264,7 +8254,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8302,7 +8291,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -8944,8 +8932,3205 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>29-01-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>29-01-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>26-02-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>50D030080</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*1	G</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>50D030220</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*2	G</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>50D030400</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*3	G</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>50Z070310</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*50</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>50D240060</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*30</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>120,00</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>240,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>110001510</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>TRU	SHINE	KG*1</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>17,50</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>17,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>50Z250022</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>TERMINATOR	250	MAGNETICO	POS*2</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>50Z250022</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>TERMINATOR	250	MAGNETICO	POS*3</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>50Z117130</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>50Z117140</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>50Z117150</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>50Z117160</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>50Z117170</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>50Z127008</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*80</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>50Z127012</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*120</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>50Z127022</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*220</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>50Z127040</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*400</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>50Z127080</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*800</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>50Z127180</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*1800</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>50Z127300</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*3000</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>50D240222</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*220</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>50D240402</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*400</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>50D243002</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*3000</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9001,7 +12186,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9011,7 +12196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:L254"/>
+  <dimension ref="C1:L349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16347,7 +19532,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16385,7 +19569,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16423,7 +19606,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16461,7 +19643,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16499,7 +19680,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16537,7 +19717,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16575,7 +19754,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16613,7 +19791,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16651,7 +19828,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16689,7 +19865,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16727,7 +19902,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -16765,7 +19939,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -17407,7 +20580,3165 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>50D030080</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*1	G</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>50D030220</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*2	G</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>50D030400</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*CASSANI	*3	G</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>132,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>50Z070310</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*50</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>50D240060</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*30</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>120,00</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>240,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>110001510</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>TRU	SHINE	KG*1</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>17,50</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>17,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>50Z250022</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>TERMINATOR	250	MAGNETICO	POS*2</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>50Z250022</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>TERMINATOR	250	MAGNETICO	POS*3</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>132,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>50Z117130</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>50Z117140</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>50Z117150</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>50Z117160</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>50Z117170</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>DIAGRES	125/VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>14,50</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>43,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>50Z127008</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*80</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>50Z127012</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*120</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>50Z127022</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*220</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>50Z127040</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*400</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>50Z127080</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*800</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>50Z127180</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*1800</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>50Z127300</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>DIAGRES	XXL	127-AR	*3000</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>73,00</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>36,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>50D240222</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*220</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>50D240402</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*400</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>50D243002</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*MGT	*3000</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>140,00</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Fatture.xlsx
+++ b/Fatture.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J350"/>
+  <dimension ref="A1:J374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11069,7 +11069,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11107,7 +11106,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11145,7 +11143,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11183,7 +11180,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11221,7 +11217,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11259,7 +11254,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11297,7 +11291,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11335,7 +11328,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11373,7 +11365,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11411,7 +11402,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11449,7 +11439,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11487,7 +11476,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -12126,6 +12114,496 @@
       <c r="J350" t="inlineStr">
         <is>
           <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ADRIATICA	LUCIDANTI	DI	PETRIZZO
+GIANLUCA	C	SNC
+</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>31-03-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	POTE	GRANITO</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>13,60</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>CASSANI	SUPER	GR	30/60/120</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>135,00</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>130,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	F1</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>4,30</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>215,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	WR	MARMO</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>4,60</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>230,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NP	DIAMANT	SRLS
+</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>27-02-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DISCO	D.350	B2DLC/2	SILENZIATO	GRANITO	F.50</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>51,00</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>51,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>DISCO	D.400	B2DLC/2	SILENZIATO	GRANITO</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>67,00</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>134,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>DISCO	D.500	B2DLC/2	SILENZIATO	GRANITO</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>106,00</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>106,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>DISCO	D.500	M1S	SILENZIATO	MARMO	F.60/50</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>112,00</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>112,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>DISCO	D.625	V55DLC/2	SILENZIATO	PER</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>245,10</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>245,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>FRESA	DA	TAGLIO	22*45	ATT.1/2	GAS	5	SETTORI</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>DISCO	D.230	D.E.	F.25,4	MARMO</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>MOLA	D.240X437	RIGENERATA	CONH	220</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>619,00</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>619,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>29-01-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>29-01-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>26-02-2021</t>
         </is>
       </c>
     </row>
@@ -12196,7 +12674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:L349"/>
+  <dimension ref="C1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22678,7 +23156,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22716,7 +23193,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22754,7 +23230,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22792,7 +23267,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22830,7 +23304,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22868,7 +23341,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22906,7 +23378,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22944,7 +23415,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22982,7 +23452,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23020,7 +23489,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23058,7 +23526,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23096,7 +23563,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23735,6 +24201,430 @@
       <c r="J349" t="inlineStr">
         <is>
           <t>70,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	POTE	GRANITO</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>13,60</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>CASSANI	SUPER	GR	30/60/120</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>135,00</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>PZ</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>130,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	F1</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>4,30</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>215,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>LUCIDANTE	WR	MARMO</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>4,60</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>230,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>DISCO	D.350	B2DLC/2	SILENZIATO	GRANITO	F.50</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>51,00</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>51,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DISCO	D.400	B2DLC/2	SILENZIATO	GRANITO</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>67,00</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>134,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>DISCO	D.500	B2DLC/2	SILENZIATO	GRANITO</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>106,00</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>106,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>DISCO	D.500	M1S	SILENZIATO	MARMO	F.60/50</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>112,00</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>112,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>DISCO	D.625	V55DLC/2	SILENZIATO	PER</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>245,10</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>245,10</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>FRESA	DA	TAGLIO	22*45	ATT.1/2	GAS	5	SETTORI</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>100,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>DISCO	D.230	D.E.	F.25,4	MARMO</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>MOLA	D.240X437	RIGENERATA	CONH	220</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>619,00</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>619,00</t>
         </is>
       </c>
     </row>

--- a/Fatture.xlsx
+++ b/Fatture.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Acquista" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,15 +46,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J350"/>
+  <dimension ref="A1:J382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11069,7 +11069,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11107,7 +11106,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11145,7 +11143,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11183,7 +11180,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11221,7 +11217,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11259,7 +11254,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11297,7 +11291,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11335,7 +11328,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11373,7 +11365,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11411,7 +11402,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11449,7 +11439,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -11487,7 +11476,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -12129,8 +12117,1085 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SWEDIAM	SRL
+</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>29-01-2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -12186,7 +13251,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -12196,7 +13261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:L349"/>
+  <dimension ref="C1:L381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22678,7 +23743,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22716,7 +23780,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22754,7 +23817,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22792,7 +23854,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22830,7 +23891,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22868,7 +23928,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22906,7 +23965,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22944,7 +24002,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -22982,7 +24039,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23020,7 +24076,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23058,7 +24113,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23096,7 +24150,6 @@
           <t>NR</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
           <t>22,00</t>
@@ -23738,7 +24791,1071 @@
         </is>
       </c>
     </row>
+    <row r="353">
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>060000520</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*1500	MGT</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>060000510</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>DIAGRES	"SPONGE"	225	*800	MGT</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>50Z070320</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*100</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>50Z070330</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*200</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>50Z070350</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*400</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>50Z070360</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*800</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>50Z070370</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*1800</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>50Z070380</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>DIAGRES	*FLASH-PAD*	17"	*3500</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>50D240080</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*80</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>50D240120</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*120</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>50D240220</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*220</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>50D240400</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*400</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>50D240800</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*800</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>50D241800</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*1800</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>50D243000</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*240	XXL	*VLC	*3000</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>60,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>50D150224</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*220</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>50D150404</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>DIAGRES	"DOD	*150	ECC	*400</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>40,00</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>80,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*2</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*3</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>150,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>50Z250000</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>TERMINATOR	CASSANI	POS*1</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>50Z180072</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*100</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>50Z180074</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*200</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>50Z180076</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*400</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>50Z180078</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*800</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>50Z180080</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*1500</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>50Z180082</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>DIAGRES	240-VLC	HD	*3000</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>25,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>TRA	(CODICE</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>SPESE	TRASPORTO</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>